--- a/biology/Médecine/Angiome_stellaire/Angiome_stellaire.xlsx
+++ b/biology/Médecine/Angiome_stellaire/Angiome_stellaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'angiome stellaire est une lésion vasculaire bénigne de la peau ayant la forme d'un point central qui se ramifie par de nombreuses petites branches capillaires, comme une étoile (d'où le nom).
 </t>
@@ -511,7 +523,9 @@
           <t>Étymologie et synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Angiome comprend le préfixe « ang- » qui vient du grec « angéion » signifiant « vaisseau » et le suffixe « -ome », qui, en termes médicaux, signifie « prolifération/tumeur ».
 Stellaire qualifie la prolifération des capillaires et signifie étoile.
@@ -544,7 +558,9 @@
           <t>Physiopathologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Les angiomes stellaires se forment en raison d'une défaillance des sphincters précapillaires.  Le point rouge central est l'artériole dilatée et les "pattes d'araignée" sont des petits capillaires apportant le sang.
 Si une pression momentanée est appliquée, il est possible de voir les capillaires vidés se remplir à partir du centre.  Aucun autre angiome ne montre ce phénomène.
@@ -577,7 +593,9 @@
           <t>Examen clinique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les angiomes stellaires sont souvent au nombre de 4 à 10.
 Ils sont présents sur le visage ou les mains le plus souvent, mais peuvent se répartir sur l'ensemble du corps.
@@ -611,7 +629,9 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Insuffisance hépatique (l'angiome stellaire est une forme de télangiectasie)
 Grossesse
@@ -647,12 +667,14 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">La disparition de l'angiome stellaire dans la cirrhose est le traitement de la cause, c’est-à-dire la stabilisation de l'insuffisance hépatocellulaire.
 Le principal traitement de l'angiome stellaire est l'électrocoagulation, qui consiste comme son nom l'indique à coaguler les vaisseaux dilatés à l'aide le plus souvent d'un bistouri électrique.
 Si les angiomes sont persistants, on peut utiliser une scarification médicale de la peau très superficielle à l'aide d'une griffe.
-Le laser est également un mode de traitement des angiomes stellaires[1] : on utilise des lasers vasculaires de type KTP[réf. souhaitée] ou à colorant pulsé[réf. souhaitée]. Le mode de fonctionnement repose sur la concentration de l'énergie lumineuse sur l'hémoglobine des globules rouges. L'accumulation sélective de l'énergie provoque une obstruction des vaisseaux(photocoagulation sélective). On compte entre 1 et 3 séances espacées de 1 à 2 mois pour supprimer les lésions vasculaires.
+Le laser est également un mode de traitement des angiomes stellaires : on utilise des lasers vasculaires de type KTP[réf. souhaitée] ou à colorant pulsé[réf. souhaitée]. Le mode de fonctionnement repose sur la concentration de l'énergie lumineuse sur l'hémoglobine des globules rouges. L'accumulation sélective de l'énergie provoque une obstruction des vaisseaux(photocoagulation sélective). On compte entre 1 et 3 séances espacées de 1 à 2 mois pour supprimer les lésions vasculaires.
 </t>
         </is>
       </c>
